--- a/KEA - aplicaciones moviles/Institución Academica.xlsx
+++ b/KEA - aplicaciones moviles/Institución Academica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KEA - aplicaciones moviles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087052D4-52A1-4F23-A660-D57F5676CF57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B839192-9469-42CD-9089-4BA30D46F3EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{722B55BF-3E02-4744-8C48-43224C688826}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>estado boolean</t>
   </si>
   <si>
-    <t>void contratar (string ident)</t>
-  </si>
-  <si>
     <t>Retirar(string</t>
   </si>
   <si>
@@ -69,13 +66,16 @@
     <t>salario double</t>
   </si>
   <si>
-    <t>liquidar (string ident)</t>
-  </si>
-  <si>
     <t>void promover (string ident, string cargo)</t>
   </si>
   <si>
     <t>INSTITUCIÓN ACADEMICA</t>
+  </si>
+  <si>
+    <t>void Contratar (string ident)</t>
+  </si>
+  <si>
+    <t>Liquidar (string ident)</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
   <dimension ref="D1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
     </row>
     <row r="2" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.25">
@@ -692,49 +692,49 @@
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F11" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="H20" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
